--- a/analytics.xlsx
+++ b/analytics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Puzzle8Tabelas" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="34">
   <si>
     <t xml:space="preserve">Tabelas Gerais</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Custo da Solução</t>
   </si>
   <si>
-    <t xml:space="preserve">Estados Expandidos</t>
+    <t xml:space="preserve">Estados Gerados</t>
   </si>
   <si>
     <t xml:space="preserve">Tempo de Execução</t>
@@ -94,6 +94,12 @@
     <t xml:space="preserve">Total execução</t>
   </si>
   <si>
+    <t xml:space="preserve">Speed up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memoria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Legenda:</t>
   </si>
   <si>
@@ -125,16 +131,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,6 +164,7 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -163,21 +172,29 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -269,84 +286,96 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,30 +388,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -446,7 +451,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -521,6 +526,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -605,6 +611,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -689,6 +696,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -740,17 +748,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="81135880"/>
-        <c:axId val="36761373"/>
+        <c:axId val="21793911"/>
+        <c:axId val="95048379"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81135880"/>
+        <c:axId val="21793911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -772,7 +780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36761373"/>
+        <c:crossAx val="95048379"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36761373"/>
+        <c:axId val="95048379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +803,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -817,7 +825,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81135880"/>
+        <c:crossAx val="21793911"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -865,7 +873,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -885,8 +893,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Algoritmo A* - Number link
-Puzzle 1 e 2 (estados expandidos)</a:t>
+              <a:t>Algoritmo A* - Puzzle 8
+Problemas fáceis (estados gerados)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -910,11 +918,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$N$4</c:f>
+              <c:f>Puzzle8Tabelas!$Q$4:$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo 2</c:v>
+                  <c:v>Paralelo 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -940,6 +948,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -955,29 +964,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$M$5:$M$6</c:f>
+              <c:f>Puzzle8Tabelas!$P$5:$P$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Numberlink1</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fácil1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Numberlink2</c:v>
+                  <c:v>Fácil2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fácil3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$N$5:$N$6</c:f>
+              <c:f>Puzzle8Tabelas!$Q$5:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170</c:v>
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,11 +1003,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$O$4</c:f>
+              <c:f>Puzzle8Tabelas!$R$4:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sequencial</c:v>
+                  <c:v>Paralelo 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1018,6 +1033,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1033,29 +1049,120 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$M$5:$M$6</c:f>
+              <c:f>Puzzle8Tabelas!$P$5:$P$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Numberlink1</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fácil1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Numberlink2</c:v>
+                  <c:v>Fácil2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fácil3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$O$5:$O$6</c:f>
+              <c:f>Puzzle8Tabelas!$R$5:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158</c:v>
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Puzzle8Tabelas!$S$4:$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Puzzle8Tabelas!$P$5:$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fácil1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fácil2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fácil3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Puzzle8Tabelas!$S$5:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,17 +1170,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="98194596"/>
-        <c:axId val="15834564"/>
+        <c:axId val="25391777"/>
+        <c:axId val="85731842"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98194596"/>
+        <c:axId val="25391777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1095,7 +1202,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15834564"/>
+        <c:crossAx val="85731842"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1103,7 +1210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15834564"/>
+        <c:axId val="85731842"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1225,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1140,7 +1247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98194596"/>
+        <c:crossAx val="25391777"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1188,7 +1295,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1208,8 +1315,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Algoritmo A* - Number link
-Puzzle 3 e 4 (estados expandidos)</a:t>
+              <a:t>Algoritmo A* - Puzzle 8
+Problemas difíceis - Solução encontrada (tempo de execução)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1233,11 +1340,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$N$10</c:f>
+              <c:f>Puzzle8Tabelas!$L$11:$L$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo 2</c:v>
+                  <c:v>Paralelo 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1263,6 +1370,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1278,29 +1386,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$M$11:$M$12</c:f>
+              <c:f>Puzzle8Tabelas!$K$12:$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Numberlink3</c:v>
+                  <c:v>Difícil1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Numberlink4</c:v>
+                  <c:v>Difícil2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$N$11:$N$12</c:f>
+              <c:f>Puzzle8Tabelas!$L$12:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5685</c:v>
+                  <c:v>0.02645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8444</c:v>
+                  <c:v>0.035174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,11 +1419,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$O$10</c:f>
+              <c:f>Puzzle8Tabelas!$M$11:$M$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sequencial</c:v>
+                  <c:v>Paralelo 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1341,6 +1449,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1356,29 +1465,108 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$M$11:$M$12</c:f>
+              <c:f>Puzzle8Tabelas!$K$12:$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Numberlink3</c:v>
+                  <c:v>Difícil1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Numberlink4</c:v>
+                  <c:v>Difícil2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$O$11:$O$12</c:f>
+              <c:f>Puzzle8Tabelas!$M$12:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1723</c:v>
+                  <c:v>0.013113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3482</c:v>
+                  <c:v>0.00867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Puzzle8Tabelas!$N$11:$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Puzzle8Tabelas!$K$12:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Difícil1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Difícil2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Puzzle8Tabelas!$N$12:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.019653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.048165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,17 +1574,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="95450898"/>
-        <c:axId val="66144703"/>
+        <c:axId val="84577064"/>
+        <c:axId val="24790228"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95450898"/>
+        <c:axId val="84577064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1418,7 +1606,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66144703"/>
+        <c:crossAx val="24790228"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +1614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66144703"/>
+        <c:axId val="24790228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1629,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1463,7 +1651,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95450898"/>
+        <c:crossAx val="84577064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1511,7 +1699,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1531,8 +1719,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Algoritmo A* - Number Link
-Puzzle 5 (estados expandidos)</a:t>
+              <a:t>Algoritmo A* - Puzzle 8
+Problemas impossíveis - Sem solução (tempo de execução)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1556,11 +1744,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$M$17</c:f>
+              <c:f>Puzzle8Tabelas!$L$17:$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Numberlink5</c:v>
+                  <c:v>Paralelo 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1586,6 +1774,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1601,259 +1790,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$N$16:$O$16</c:f>
+              <c:f>Puzzle8Tabelas!$K$18:$K$19</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo 2</c:v>
+                  <c:v>Impossível1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sequencial</c:v>
+                  <c:v>Impossível2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$N$17:$O$17</c:f>
+              <c:f>Puzzle8Tabelas!$L$18:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>113473</c:v>
+                  <c:v>3.583863</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112890</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="50671815"/>
-        <c:axId val="42957544"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50671815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="42957544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="42957544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50671815"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Algoritmo A* - Puzzle 8
-Problemas fáceis (estados expandidos)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Puzzle8Tabelas!$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Paralelo 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Puzzle8Tabelas!$N$5:$N$7</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Fácil1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fácil2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fácil3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Puzzle8Tabelas!$O$5:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>678</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1101</c:v>
+                  <c:v>3.558119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,7 +1823,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$P$4</c:f>
+              <c:f>Puzzle8Tabelas!$M$17:$M$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1894,6 +1853,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1909,35 +1869,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$N$5:$N$7</c:f>
+              <c:f>Puzzle8Tabelas!$K$18:$K$19</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Fácil1</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Impossível1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fácil2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fácil3</c:v>
+                  <c:v>Impossível2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$P$5:$P$7</c:f>
+              <c:f>Puzzle8Tabelas!$M$18:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>571</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.448992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1593</c:v>
+                  <c:v>3.577155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1948,7 +1902,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$Q$4</c:f>
+              <c:f>Puzzle8Tabelas!$N$17:$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1978,6 +1932,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1993,35 +1948,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$N$5:$N$7</c:f>
+              <c:f>Puzzle8Tabelas!$K$18:$K$19</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Fácil1</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Impossível1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fácil2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fácil3</c:v>
+                  <c:v>Impossível2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$Q$5:$Q$7</c:f>
+              <c:f>Puzzle8Tabelas!$N$18:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>193</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.356999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>505</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>963</c:v>
+                  <c:v>9.747409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,17 +1978,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="89112666"/>
-        <c:axId val="36398200"/>
+        <c:axId val="40295240"/>
+        <c:axId val="56883183"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89112666"/>
+        <c:axId val="40295240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2061,7 +2010,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36398200"/>
+        <c:crossAx val="56883183"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2069,7 +2018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36398200"/>
+        <c:axId val="56883183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2033,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2106,7 +2055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89112666"/>
+        <c:crossAx val="40295240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2154,7 +2103,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2175,7 +2124,7 @@
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Algoritmo A* - Puzzle 8
-Problemas difíceis - Solução encontrada (tempo de execução)</a:t>
+Problemas difíceis (estados gerados)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2199,7 +2148,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$J$11</c:f>
+              <c:f>Puzzle8Tabelas!$Q$10:$Q$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2229,6 +2178,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2244,7 +2194,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$I$12:$I$13</c:f>
+              <c:f>Puzzle8Tabelas!$P$11:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2258,15 +2208,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$J$12:$J$13</c:f>
+              <c:f>Puzzle8Tabelas!$Q$11:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.023375</c:v>
+                  <c:v>26326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.027046</c:v>
+                  <c:v>25705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2277,7 +2227,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$K$11</c:f>
+              <c:f>Puzzle8Tabelas!$R$10:$R$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2307,6 +2257,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2322,7 +2273,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$I$12:$I$13</c:f>
+              <c:f>Puzzle8Tabelas!$P$11:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2336,15 +2287,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$K$12:$K$13</c:f>
+              <c:f>Puzzle8Tabelas!$R$11:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.008448</c:v>
+                  <c:v>19935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.023863</c:v>
+                  <c:v>15677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2355,7 +2306,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$L$11</c:f>
+              <c:f>Puzzle8Tabelas!$S$10:$S$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2385,6 +2336,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2400,7 +2352,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$I$12:$I$13</c:f>
+              <c:f>Puzzle8Tabelas!$P$11:$P$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2414,15 +2366,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$L$12:$L$13</c:f>
+              <c:f>Puzzle8Tabelas!$S$11:$S$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.023708</c:v>
+                  <c:v>14679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.063029</c:v>
+                  <c:v>23637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,17 +2382,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="46034564"/>
-        <c:axId val="69618866"/>
+        <c:axId val="20662443"/>
+        <c:axId val="25116003"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46034564"/>
+        <c:axId val="20662443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2462,7 +2414,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69618866"/>
+        <c:crossAx val="25116003"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2470,7 +2422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69618866"/>
+        <c:axId val="25116003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2437,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2507,7 +2459,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46034564"/>
+        <c:crossAx val="20662443"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2555,7 +2507,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2576,7 +2528,7 @@
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Algoritmo A* - Puzzle 8
-Problemas impossíveis - Sem solução (tempo de execução)</a:t>
+Problemas impossíveis (estados gerados)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2600,7 +2552,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$J$17</c:f>
+              <c:f>Puzzle8Tabelas!$Q$16:$Q$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2630,6 +2582,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2645,7 +2598,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$I$18:$I$19</c:f>
+              <c:f>Puzzle8Tabelas!$P$17:$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2659,15 +2612,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$J$18:$J$19</c:f>
+              <c:f>Puzzle8Tabelas!$Q$17:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.505012</c:v>
+                  <c:v>181439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.475799</c:v>
+                  <c:v>181439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2678,7 +2631,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$K$17</c:f>
+              <c:f>Puzzle8Tabelas!$R$16:$R$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2708,6 +2661,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2723,7 +2677,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$I$18:$I$19</c:f>
+              <c:f>Puzzle8Tabelas!$P$17:$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2737,15 +2691,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$K$18:$K$19</c:f>
+              <c:f>Puzzle8Tabelas!$R$17:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.588861</c:v>
+                  <c:v>181439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.499128</c:v>
+                  <c:v>181439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,7 +2710,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$L$17</c:f>
+              <c:f>Puzzle8Tabelas!$S$16:$S$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2786,6 +2740,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2801,7 +2756,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$I$18:$I$19</c:f>
+              <c:f>Puzzle8Tabelas!$P$17:$P$18</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2815,15 +2770,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$L$18:$L$19</c:f>
+              <c:f>Puzzle8Tabelas!$S$17:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.175499</c:v>
+                  <c:v>181439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.287301</c:v>
+                  <c:v>181439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,17 +2786,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="57794559"/>
-        <c:axId val="80333818"/>
+        <c:axId val="34444452"/>
+        <c:axId val="90831142"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57794559"/>
+        <c:axId val="34444452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2863,7 +2818,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80333818"/>
+        <c:crossAx val="90831142"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2871,7 +2826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80333818"/>
+        <c:axId val="90831142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2886,7 +2841,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2908,7 +2863,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57794559"/>
+        <c:crossAx val="34444452"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2956,7 +2911,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2976,8 +2931,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Algoritmo A* - Puzzle 8
-Problemas difíceis (estados expandidos)</a:t>
+              <a:t>Algoritmo A* - Number link
+Puzzle 1 e 2 (tempo de execução)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3001,11 +2956,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$O$10</c:f>
+              <c:f>NumberLinkTabelas!$L$4:$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo 1</c:v>
+                  <c:v>Paralelo 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3031,6 +2986,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3046,29 +3002,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$N$11:$N$12</c:f>
+              <c:f>NumberLinkTabelas!$K$5:$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Difícil1</c:v>
+                  <c:v>Numberlink1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Difícil2</c:v>
+                  <c:v>Numberlink2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$O$11:$O$12</c:f>
+              <c:f>NumberLinkTabelas!$L$5:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20836</c:v>
+                  <c:v>0.000282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26114</c:v>
+                  <c:v>0.00037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,11 +3035,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$P$10</c:f>
+              <c:f>NumberLinkTabelas!$M$4:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo 2</c:v>
+                  <c:v>Sequencial</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3109,6 +3065,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3124,107 +3081,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$N$11:$N$12</c:f>
+              <c:f>NumberLinkTabelas!$K$5:$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Difícil1</c:v>
+                  <c:v>Numberlink1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Difícil2</c:v>
+                  <c:v>Numberlink2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$P$11:$P$12</c:f>
+              <c:f>NumberLinkTabelas!$M$5:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13817</c:v>
+                  <c:v>2.1E-005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24969</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Puzzle8Tabelas!$Q$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sequencial</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Puzzle8Tabelas!$N$11:$N$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Difícil1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Difícil2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Puzzle8Tabelas!$Q$11:$Q$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>14679</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23637</c:v>
+                  <c:v>0.000118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3232,17 +3111,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="64719144"/>
-        <c:axId val="59550399"/>
+        <c:axId val="78189589"/>
+        <c:axId val="26216680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64719144"/>
+        <c:axId val="78189589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3264,7 +3143,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59550399"/>
+        <c:crossAx val="26216680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3272,7 +3151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59550399"/>
+        <c:axId val="26216680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,7 +3166,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3309,7 +3188,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64719144"/>
+        <c:crossAx val="78189589"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3357,7 +3236,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3377,8 +3256,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Algoritmo A* - Puzzle 8
-Problemas impossíveis (estados expandidos)</a:t>
+              <a:t>Algoritmo A* - Number link
+Puzzle 3 e 4 (tempo de execução)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3402,11 +3281,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$O$16</c:f>
+              <c:f>NumberLinkTabelas!$L$10:$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo 1</c:v>
+                  <c:v>Paralelo 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3432,6 +3311,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3447,29 +3327,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$N$17:$N$18</c:f>
+              <c:f>NumberLinkTabelas!$K$11:$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Impossível1</c:v>
+                  <c:v>Numberlink3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impossível2</c:v>
+                  <c:v>Numberlink4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$O$17:$O$18</c:f>
+              <c:f>NumberLinkTabelas!$L$11:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>181439</c:v>
+                  <c:v>0.001392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181439</c:v>
+                  <c:v>0.000641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,11 +3360,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$P$16</c:f>
+              <c:f>NumberLinkTabelas!$M$10:$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo 2</c:v>
+                  <c:v>Sequencial</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3510,6 +3390,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3525,107 +3406,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Puzzle8Tabelas!$N$17:$N$18</c:f>
+              <c:f>NumberLinkTabelas!$K$11:$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Impossível1</c:v>
+                  <c:v>Numberlink3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impossível2</c:v>
+                  <c:v>Numberlink4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Puzzle8Tabelas!$P$17:$P$18</c:f>
+              <c:f>NumberLinkTabelas!$M$11:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>181439</c:v>
+                  <c:v>0.001168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181439</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Puzzle8Tabelas!$Q$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sequencial</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Puzzle8Tabelas!$N$17:$N$18</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Impossível1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Impossível2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Puzzle8Tabelas!$Q$17:$Q$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>181439</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>181439</c:v>
+                  <c:v>0.002101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3633,17 +3436,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="53588846"/>
-        <c:axId val="82846713"/>
+        <c:axId val="78864123"/>
+        <c:axId val="20658402"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53588846"/>
+        <c:axId val="78864123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3665,7 +3468,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82846713"/>
+        <c:crossAx val="20658402"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3673,7 +3476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82846713"/>
+        <c:axId val="20658402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3688,7 +3491,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3710,7 +3513,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53588846"/>
+        <c:crossAx val="78864123"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3758,7 +3561,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3779,7 +3582,7 @@
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Algoritmo A* - Number link
-Puzzle 1 e 2 (tempo de execução)</a:t>
+Puzzle 5 (tempo de execução)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3803,11 +3606,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$J$4</c:f>
+              <c:f>NumberLinkTabelas!$K$17:$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Paralelo 2</c:v>
+                  <c:v>Numberlink5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3833,6 +3636,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3848,29 +3652,254 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$I$5:$I$6</c:f>
+              <c:f>NumberLinkTabelas!$L$16:$M$16</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Numberlink1</c:v>
+                  <c:v>Paralelo 2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Numberlink2</c:v>
+                  <c:v>Sequencial</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$J$5:$J$6</c:f>
+              <c:f>NumberLinkTabelas!$L$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.5E-005</c:v>
+                  <c:v>0.1385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7E-005</c:v>
+                  <c:v>0.410421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="22213910"/>
+        <c:axId val="77975943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="22213910"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77975943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77975943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22213910"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Algoritmo A* - Number link
+Puzzle 1 e 2 (estados gerados)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NumberLinkTabelas!$P$4:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralelo 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>NumberLinkTabelas!$O$5:$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Numberlink1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Numberlink2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NumberLinkTabelas!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,7 +3910,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$K$4</c:f>
+              <c:f>NumberLinkTabelas!$Q$4:$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3911,6 +3940,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3926,7 +3956,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$I$5:$I$6</c:f>
+              <c:f>NumberLinkTabelas!$O$5:$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3940,15 +3970,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$K$5:$K$6</c:f>
+              <c:f>NumberLinkTabelas!$Q$5:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.5E-005</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000106</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,17 +3986,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="61888107"/>
-        <c:axId val="21270557"/>
+        <c:axId val="48145118"/>
+        <c:axId val="79033270"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61888107"/>
+        <c:axId val="48145118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3988,7 +4018,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21270557"/>
+        <c:crossAx val="79033270"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3996,7 +4026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21270557"/>
+        <c:axId val="79033270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,7 +4041,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4033,7 +4063,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61888107"/>
+        <c:crossAx val="48145118"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4081,7 +4111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4102,7 +4132,7 @@
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Algoritmo A* - Number link
-Puzzle 3 e 4 (tempo de execução)</a:t>
+Puzzle 3 e 4 (estados gerados)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4126,7 +4156,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$J$10</c:f>
+              <c:f>NumberLinkTabelas!$P$10:$P$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4156,6 +4186,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4171,7 +4202,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$I$11:$I$12</c:f>
+              <c:f>NumberLinkTabelas!$O$11:$O$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4185,15 +4216,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$J$11:$J$12</c:f>
+              <c:f>NumberLinkTabelas!$P$11:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.002788</c:v>
+                  <c:v>1725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003038</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4204,7 +4235,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$K$10</c:f>
+              <c:f>NumberLinkTabelas!$Q$10:$Q$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4234,6 +4265,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4249,7 +4281,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$I$11:$I$12</c:f>
+              <c:f>NumberLinkTabelas!$O$11:$O$12</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4263,15 +4295,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$K$11:$K$12</c:f>
+              <c:f>NumberLinkTabelas!$Q$11:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.001217</c:v>
+                  <c:v>1723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.002153</c:v>
+                  <c:v>3482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4279,17 +4311,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="59552319"/>
-        <c:axId val="22321524"/>
+        <c:axId val="50352207"/>
+        <c:axId val="55690834"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59552319"/>
+        <c:axId val="50352207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4311,7 +4343,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22321524"/>
+        <c:crossAx val="55690834"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4319,7 +4351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22321524"/>
+        <c:axId val="55690834"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,7 +4366,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4356,7 +4388,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59552319"/>
+        <c:crossAx val="50352207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4404,7 +4436,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4424,8 +4456,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Algoritmo A* - Number link
-Puzzle 5 (tempo de execução)</a:t>
+              <a:t>Algoritmo A* - Number Link
+Puzzle 5 (estados gerados)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4449,7 +4481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$I$17</c:f>
+              <c:f>NumberLinkTabelas!$O$17:$O$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4479,6 +4511,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4494,7 +4527,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NumberLinkTabelas!$J$16:$K$16</c:f>
+              <c:f>NumberLinkTabelas!$P$16:$Q$16</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4508,15 +4541,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NumberLinkTabelas!$J$17:$K$17</c:f>
+              <c:f>NumberLinkTabelas!$P$17:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.36644</c:v>
+                  <c:v>125423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.490045</c:v>
+                  <c:v>112890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4524,17 +4557,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84817267"/>
-        <c:axId val="36570222"/>
+        <c:axId val="85237552"/>
+        <c:axId val="42152369"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84817267"/>
+        <c:axId val="85237552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4556,7 +4589,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36570222"/>
+        <c:crossAx val="42152369"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4564,7 +4597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36570222"/>
+        <c:axId val="42152369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,7 +4612,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4601,7 +4634,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84817267"/>
+        <c:crossAx val="85237552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4639,9 +4672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4650,7 +4683,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4669,9 +4702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4680,7 +4713,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6505200" y="360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4699,9 +4732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4710,7 +4743,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="3414240"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4729,9 +4762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4740,7 +4773,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="6828120"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4759,9 +4792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
+      <xdr:colOff>69840</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4770,7 +4803,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6502680" y="3414240"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4789,9 +4822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
+      <xdr:colOff>69840</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4800,7 +4833,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6502680" y="6827760"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4824,9 +4857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4835,7 +4868,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4854,9 +4887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4865,7 +4898,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="3414240"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4884,9 +4917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4895,7 +4928,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="6827760"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4914,9 +4947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
+      <xdr:colOff>69840</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4925,7 +4958,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6502680" y="360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4944,9 +4977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
+      <xdr:colOff>69840</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4955,7 +4988,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6502680" y="3414240"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4974,9 +5007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
+      <xdr:colOff>69840</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4985,7 +5018,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6502680" y="6828120"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5003,1204 +5036,1413 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:Q36"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="18.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="3.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="11.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="3.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.03"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
+    <row r="3" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="8" t="n">
         <v>193</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="8" t="n">
         <v>118</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>0.000111</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="8" t="n">
+        <v>9.6E-005</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="n">
-        <f aca="false">VLOOKUP(I5,$A$15:$G$21,7,0)</f>
-        <v>0.00018</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <f aca="false">VLOOKUP(I5,$A$25:$G$31,7,0)</f>
-        <v>0.000234</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <f aca="false">VLOOKUP(I5,$A$5:$G$11,7,0)</f>
-        <v>0.000111</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="5" t="s">
+      <c r="L5" s="8" t="n">
+        <f aca="false">VLOOKUP(K5,$A$15:$G$21,7,0)</f>
+        <v>0.00028</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <f aca="false">VLOOKUP(K5,$A$25:$G$31,7,0)</f>
+        <v>0.000298</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <f aca="false">VLOOKUP(K5,$A$5:$G$11,7,0)</f>
+        <v>9.6E-005</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="6" t="n">
-        <f aca="false">VLOOKUP(N5,$A$15:$G$21,5,0)</f>
-        <v>468</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <f aca="false">VLOOKUP(N5,$A$25:$G$31,5,0)</f>
-        <v>571</v>
-      </c>
-      <c r="Q5" s="6" t="n">
-        <f aca="false">VLOOKUP(N5,$A$5:$G$11,5,0)</f>
+      <c r="Q5" s="8" t="n">
+        <f aca="false">VLOOKUP(P5,$A$15:$G$21,5,0)</f>
+        <v>416</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <f aca="false">VLOOKUP(P5,$A$25:$G$31,5,0)</f>
+        <v>377</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <f aca="false">VLOOKUP(P5,$A$5:$G$11,5,0)</f>
         <v>193</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="8" t="n">
         <v>505</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="8" t="n">
         <v>308</v>
       </c>
-      <c r="G6" s="6" t="n">
-        <v>0.000152</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5" t="s">
+      <c r="G6" s="8" t="n">
+        <v>0.000216</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="6" t="n">
-        <f aca="false">VLOOKUP(I6,$A$15:$G$21,7,0)</f>
-        <v>0.000255</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <f aca="false">VLOOKUP(I6,$A$25:$G$31,7,0)</f>
-        <v>0.000341</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <f aca="false">VLOOKUP(I6,$A$5:$G$11,7,0)</f>
-        <v>0.000152</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="5" t="s">
+      <c r="L6" s="8" t="n">
+        <f aca="false">VLOOKUP(K6,$A$15:$G$21,7,0)</f>
+        <v>0.000404</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <f aca="false">VLOOKUP(K6,$A$25:$G$31,7,0)</f>
+        <v>0.000462</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <f aca="false">VLOOKUP(K6,$A$5:$G$11,7,0)</f>
+        <v>0.000216</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="6" t="n">
-        <f aca="false">VLOOKUP(N6,$A$15:$G$21,5,0)</f>
-        <v>678</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <f aca="false">VLOOKUP(N6,$A$25:$G$31,5,0)</f>
-        <v>899</v>
-      </c>
-      <c r="Q6" s="6" t="n">
-        <f aca="false">VLOOKUP(N6,$A$5:$G$11,5,0)</f>
+      <c r="Q6" s="8" t="n">
+        <f aca="false">VLOOKUP(P6,$A$15:$G$21,5,0)</f>
+        <v>831</v>
+      </c>
+      <c r="R6" s="8" t="n">
+        <f aca="false">VLOOKUP(P6,$A$25:$G$31,5,0)</f>
+        <v>1142</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <f aca="false">VLOOKUP(P6,$A$5:$G$11,5,0)</f>
         <v>505</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="8" t="n">
         <v>963</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="8" t="n">
         <v>600</v>
       </c>
-      <c r="G7" s="6" t="n">
-        <v>0.00041</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5" t="s">
+      <c r="G7" s="8" t="n">
+        <v>0.000391</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="6" t="n">
-        <f aca="false">VLOOKUP(I7,$A$15:$G$21,7,0)</f>
-        <v>0.000641</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <f aca="false">VLOOKUP(I7,$A$25:$G$31,7,0)</f>
-        <v>0.000595</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <f aca="false">VLOOKUP(I7,$A$5:$G$11,7,0)</f>
-        <v>0.00041</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="5" t="s">
+      <c r="L7" s="8" t="n">
+        <f aca="false">VLOOKUP(K7,$A$15:$G$21,7,0)</f>
+        <v>0.000419</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <f aca="false">VLOOKUP(K7,$A$25:$G$31,7,0)</f>
+        <v>0.000405</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <f aca="false">VLOOKUP(K7,$A$5:$G$11,7,0)</f>
+        <v>0.000391</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="6" t="n">
-        <f aca="false">VLOOKUP(N7,$A$15:$G$21,5,0)</f>
-        <v>1101</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <f aca="false">VLOOKUP(N7,$A$25:$G$31,5,0)</f>
-        <v>1593</v>
-      </c>
-      <c r="Q7" s="6" t="n">
-        <f aca="false">VLOOKUP(N7,$A$5:$G$11,5,0)</f>
+      <c r="Q7" s="8" t="n">
+        <f aca="false">VLOOKUP(P7,$A$15:$G$21,5,0)</f>
+        <v>1213</v>
+      </c>
+      <c r="R7" s="8" t="n">
+        <f aca="false">VLOOKUP(P7,$A$25:$G$31,5,0)</f>
+        <v>1072</v>
+      </c>
+      <c r="S7" s="8" t="n">
+        <f aca="false">VLOOKUP(P7,$A$5:$G$11,5,0)</f>
         <v>963</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="8" t="n">
         <v>14679</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="8" t="n">
         <v>9715</v>
       </c>
-      <c r="G8" s="6" t="n">
-        <v>0.023708</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="8" t="n">
+        <v>0.019653</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="8" t="n">
-        <f aca="false">SUM(J5:J7)</f>
-        <v>0.001076</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <f aca="false">SUM(K5:K7)</f>
-        <v>0.00117</v>
-      </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="10" t="n">
         <f aca="false">SUM(L5:L7)</f>
-        <v>0.000673</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+        <v>0.001103</v>
+      </c>
+      <c r="M8" s="10" t="n">
+        <f aca="false">SUM(M5:M7)</f>
+        <v>0.001165</v>
+      </c>
+      <c r="N8" s="10" t="n">
+        <f aca="false">SUM(N5:N7)</f>
+        <v>0.000703</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="8" t="n">
         <v>23637</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="8" t="n">
         <v>16059</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>0.063029</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="G9" s="8" t="n">
+        <v>0.048165</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="8" t="n">
         <v>181439</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="8" t="n">
         <v>181440</v>
       </c>
-      <c r="G10" s="6" t="n">
-        <v>13.175499</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="G10" s="8" t="n">
+        <v>10.356999</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="R10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="S10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="8" t="n">
         <v>181439</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="8" t="n">
         <v>181440</v>
       </c>
-      <c r="G11" s="6" t="n">
-        <v>13.287301</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2" t="s">
+      <c r="G11" s="8" t="n">
+        <v>9.747409</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="M11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="N11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5"/>
+      <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="6" t="n">
-        <f aca="false">VLOOKUP(N11,$A$15:$G$21,5,0)</f>
-        <v>20836</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <f aca="false">VLOOKUP(N11,$A$25:$G$31,5,0)</f>
-        <v>13817</v>
-      </c>
-      <c r="Q11" s="6" t="n">
-        <f aca="false">VLOOKUP(N11,$A$5:$G$11,5,0)</f>
+      <c r="Q11" s="8" t="n">
+        <f aca="false">VLOOKUP(P11,$A$15:$G$21,5,0)</f>
+        <v>26326</v>
+      </c>
+      <c r="R11" s="8" t="n">
+        <f aca="false">VLOOKUP(P11,$A$25:$G$31,5,0)</f>
+        <v>19935</v>
+      </c>
+      <c r="S11" s="8" t="n">
+        <f aca="false">VLOOKUP(P11,$A$5:$G$11,5,0)</f>
         <v>14679</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="14" t="n">
+      <c r="G12" s="16" t="n">
         <f aca="false">SUM(G5:G11)</f>
-        <v>26.55021</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="5" t="s">
+        <v>20.172929</v>
+      </c>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="6" t="n">
-        <f aca="false">VLOOKUP(I12,$A$15:$G$21,7,0)</f>
-        <v>0.023375</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <f aca="false">VLOOKUP(I12,$A$25:$G$31,7,0)</f>
-        <v>0.008448</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <f aca="false">VLOOKUP(I12,$A$5:$G$11,7,0)</f>
-        <v>0.023708</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="5" t="s">
+      <c r="L12" s="8" t="n">
+        <f aca="false">VLOOKUP(K12,$A$15:$G$21,7,0)</f>
+        <v>0.02645</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <f aca="false">VLOOKUP(K12,$A$25:$G$31,7,0)</f>
+        <v>0.013113</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <f aca="false">VLOOKUP(K12,$A$5:$G$11,7,0)</f>
+        <v>0.019653</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="6" t="n">
-        <f aca="false">VLOOKUP(N12,$A$15:$G$21,5,0)</f>
-        <v>26114</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <f aca="false">VLOOKUP(N12,$A$25:$G$31,5,0)</f>
-        <v>24969</v>
-      </c>
-      <c r="Q12" s="6" t="n">
-        <f aca="false">VLOOKUP(N12,$A$5:$G$11,5,0)</f>
+      <c r="Q12" s="8" t="n">
+        <f aca="false">VLOOKUP(P12,$A$15:$G$21,5,0)</f>
+        <v>25705</v>
+      </c>
+      <c r="R12" s="8" t="n">
+        <f aca="false">VLOOKUP(P12,$A$25:$G$31,5,0)</f>
+        <v>15677</v>
+      </c>
+      <c r="S12" s="8" t="n">
+        <f aca="false">VLOOKUP(P12,$A$5:$G$11,5,0)</f>
         <v>23637</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="6" t="n">
-        <f aca="false">VLOOKUP(I13,$A$15:$G$21,7,0)</f>
-        <v>0.027046</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <f aca="false">VLOOKUP(I13,$A$25:$G$31,7,0)</f>
-        <v>0.023863</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <f aca="false">VLOOKUP(I13,$A$5:$G$11,7,0)</f>
-        <v>0.063029</v>
-      </c>
-      <c r="M13" s="3"/>
+      <c r="L13" s="8" t="n">
+        <f aca="false">VLOOKUP(K13,$A$15:$G$21,7,0)</f>
+        <v>0.035174</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <f aca="false">VLOOKUP(K13,$A$25:$G$31,7,0)</f>
+        <v>0.00867</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <f aca="false">VLOOKUP(K13,$A$5:$G$11,7,0)</f>
+        <v>0.048165</v>
+      </c>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="8" t="n">
-        <f aca="false">SUM(J12:J13)</f>
-        <v>0.050421</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <f aca="false">SUM(K12:K13)</f>
-        <v>0.032311</v>
-      </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="10" t="n">
         <f aca="false">SUM(L12:L13)</f>
-        <v>0.086737</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+        <v>0.061624</v>
+      </c>
+      <c r="M14" s="10" t="n">
+        <f aca="false">SUM(M12:M13)</f>
+        <v>0.021783</v>
+      </c>
+      <c r="N14" s="10" t="n">
+        <f aca="false">SUM(N12:N13)</f>
+        <v>0.067818</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="E15" s="6" t="n">
-        <v>468</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>294</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>0.00018</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="E15" s="8" t="n">
+        <v>416</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>267</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>0.00028</v>
+      </c>
+      <c r="H15" s="17" t="n">
+        <f aca="false">G5/G15</f>
+        <v>0.342857142857143</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <f aca="false">E15/E5</f>
+        <v>2.15544041450777</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E16" s="6" t="n">
-        <v>678</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>417</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.000255</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
+      <c r="E16" s="8" t="n">
+        <v>831</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>537</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>0.000404</v>
+      </c>
+      <c r="H16" s="17" t="n">
+        <f aca="false">G6/G16</f>
+        <v>0.534653465346535</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <f aca="false">E16/E6</f>
+        <v>1.64554455445545</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="R16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="S16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E17" s="6" t="n">
-        <v>1101</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>722</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.000641</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2" t="s">
+      <c r="E17" s="8" t="n">
+        <v>1213</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>758</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>0.000419</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <f aca="false">G7/G17</f>
+        <v>0.933174224343676</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <f aca="false">E17/E7</f>
+        <v>1.25960539979232</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="M17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="5" t="s">
+      <c r="O17" s="5"/>
+      <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="6" t="n">
-        <f aca="false">VLOOKUP(N17,$A$15:$G$21,5,0)</f>
+      <c r="Q17" s="8" t="n">
+        <f aca="false">VLOOKUP(P17,$A$15:$G$21,5,0)</f>
         <v>181439</v>
       </c>
-      <c r="P17" s="6" t="n">
-        <f aca="false">VLOOKUP(N17,$A$25:$G$31,5,0)</f>
+      <c r="R17" s="8" t="n">
+        <f aca="false">VLOOKUP(P17,$A$25:$G$31,5,0)</f>
         <v>181439</v>
       </c>
-      <c r="Q17" s="6" t="n">
-        <f aca="false">VLOOKUP(N17,$A$5:$G$11,5,0)</f>
+      <c r="S17" s="8" t="n">
+        <f aca="false">VLOOKUP(P17,$A$5:$G$11,5,0)</f>
         <v>181439</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="E18" s="6" t="n">
-        <v>20836</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>15253</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.023375</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="5" t="s">
+      <c r="E18" s="8" t="n">
+        <v>26326</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>19103</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>0.02645</v>
+      </c>
+      <c r="H18" s="17" t="n">
+        <f aca="false">G8/G18</f>
+        <v>0.743024574669187</v>
+      </c>
+      <c r="I18" s="17" t="n">
+        <f aca="false">E18/E8</f>
+        <v>1.79344642005586</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="6" t="n">
-        <f aca="false">VLOOKUP(I18,$A$15:$G$21,7,0)</f>
-        <v>3.505012</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <f aca="false">VLOOKUP(I18,$A$25:$G$31,7,0)</f>
-        <v>3.588861</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <f aca="false">VLOOKUP(I18,$A$5:$G$11,7,0)</f>
-        <v>13.175499</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="5" t="s">
+      <c r="L18" s="8" t="n">
+        <f aca="false">VLOOKUP(K18,$A$15:$G$21,7,0)</f>
+        <v>3.583863</v>
+      </c>
+      <c r="M18" s="8" t="n">
+        <f aca="false">VLOOKUP(K18,$A$25:$G$31,7,0)</f>
+        <v>3.448992</v>
+      </c>
+      <c r="N18" s="8" t="n">
+        <f aca="false">VLOOKUP(K18,$A$5:$G$11,7,0)</f>
+        <v>10.356999</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="6" t="n">
-        <f aca="false">VLOOKUP(N18,$A$15:$G$21,5,0)</f>
+      <c r="Q18" s="8" t="n">
+        <f aca="false">VLOOKUP(P18,$A$15:$G$21,5,0)</f>
         <v>181439</v>
       </c>
-      <c r="P18" s="6" t="n">
-        <f aca="false">VLOOKUP(N18,$A$25:$G$31,5,0)</f>
+      <c r="R18" s="8" t="n">
+        <f aca="false">VLOOKUP(P18,$A$25:$G$31,5,0)</f>
         <v>181439</v>
       </c>
-      <c r="Q18" s="6" t="n">
-        <f aca="false">VLOOKUP(N18,$A$5:$G$11,5,0)</f>
+      <c r="S18" s="8" t="n">
+        <f aca="false">VLOOKUP(P18,$A$5:$G$11,5,0)</f>
         <v>181439</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="E19" s="6" t="n">
-        <v>26114</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>18326</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>0.027046</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="5" t="s">
+      <c r="E19" s="8" t="n">
+        <v>25705</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>18749</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>0.035174</v>
+      </c>
+      <c r="H19" s="17" t="n">
+        <f aca="false">G9/G19</f>
+        <v>1.36933530448627</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <f aca="false">E19/E9</f>
+        <v>1.08748995219359</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="6" t="n">
-        <f aca="false">VLOOKUP(I19,$A$15:$G$21,7,0)</f>
-        <v>3.475799</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <f aca="false">VLOOKUP(I19,$A$25:$G$31,7,0)</f>
-        <v>3.499128</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <f aca="false">VLOOKUP(I19,$A$5:$G$11,7,0)</f>
-        <v>13.287301</v>
-      </c>
-      <c r="M19" s="3"/>
+      <c r="L19" s="8" t="n">
+        <f aca="false">VLOOKUP(K19,$A$15:$G$21,7,0)</f>
+        <v>3.558119</v>
+      </c>
+      <c r="M19" s="8" t="n">
+        <f aca="false">VLOOKUP(K19,$A$25:$G$31,7,0)</f>
+        <v>3.577155</v>
+      </c>
+      <c r="N19" s="8" t="n">
+        <f aca="false">VLOOKUP(K19,$A$5:$G$11,7,0)</f>
+        <v>9.747409</v>
+      </c>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="8" t="n">
         <v>181439</v>
       </c>
-      <c r="F20" s="6" t="n">
-        <v>181440</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>3.505012</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="7" t="s">
+      <c r="F20" s="8" t="n">
+        <v>187369</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>3.583863</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <f aca="false">G10/G20</f>
+        <v>2.88989813505706</v>
+      </c>
+      <c r="I20" s="17" t="n">
+        <f aca="false">E20/E10</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="8" t="n">
-        <f aca="false">SUM(J18:J19)</f>
-        <v>6.980811</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <f aca="false">SUM(K18:K19)</f>
-        <v>7.087989</v>
-      </c>
-      <c r="L20" s="8" t="n">
+      <c r="L20" s="10" t="n">
         <f aca="false">SUM(L18:L19)</f>
-        <v>26.4628</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+        <v>7.141982</v>
+      </c>
+      <c r="M20" s="10" t="n">
+        <f aca="false">SUM(M18:M19)</f>
+        <v>7.026147</v>
+      </c>
+      <c r="N20" s="10" t="n">
+        <f aca="false">SUM(N18:N19)</f>
+        <v>20.104408</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="8" t="n">
         <v>181439</v>
       </c>
-      <c r="F21" s="6" t="n">
-        <v>181440</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>3.475799</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="F21" s="8" t="n">
+        <v>186445</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>3.558119</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <f aca="false">G11/G21</f>
+        <v>2.73948369911181</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <f aca="false">E21/E11</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="14" t="n">
+      <c r="G22" s="16" t="n">
         <f aca="false">SUM(G15:G21)</f>
-        <v>7.032308</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+        <v>7.204709</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="2" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="M23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="N23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="7" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="8" t="n">
+      <c r="L24" s="10" t="n">
         <f aca="false">G22</f>
-        <v>7.032308</v>
-      </c>
-      <c r="K24" s="8" t="n">
+        <v>7.204709</v>
+      </c>
+      <c r="M24" s="10" t="n">
         <f aca="false">G32</f>
-        <v>7.12147</v>
-      </c>
-      <c r="L24" s="8" t="n">
+        <v>7.049095</v>
+      </c>
+      <c r="N24" s="10" t="n">
         <f aca="false">G12</f>
-        <v>26.55021</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+        <v>20.172929</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="E25" s="6" t="n">
-        <v>571</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>341</v>
-      </c>
-      <c r="G25" s="6" t="n">
-        <v>0.000234</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="E25" s="8" t="n">
+        <v>377</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>235</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.000298</v>
+      </c>
+      <c r="H25" s="17" t="n">
+        <f aca="false">G5/G25</f>
+        <v>0.322147651006711</v>
+      </c>
+      <c r="I25" s="17" t="n">
+        <f aca="false">E25/E5</f>
+        <v>1.95336787564767</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E26" s="6" t="n">
-        <v>899</v>
-      </c>
-      <c r="F26" s="6" t="n">
-        <v>554</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>0.000341</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="E26" s="8" t="n">
+        <v>1142</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>724</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.000462</v>
+      </c>
+      <c r="H26" s="17" t="n">
+        <f aca="false">G6/G26</f>
+        <v>0.467532467532468</v>
+      </c>
+      <c r="I26" s="17" t="n">
+        <f aca="false">E26/E6</f>
+        <v>2.26138613861386</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E27" s="6" t="n">
-        <v>1593</v>
-      </c>
-      <c r="F27" s="6" t="n">
-        <v>984</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>0.000595</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="E27" s="8" t="n">
+        <v>1072</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>678</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.000405</v>
+      </c>
+      <c r="H27" s="17" t="n">
+        <f aca="false">G7/G27</f>
+        <v>0.965432098765432</v>
+      </c>
+      <c r="I27" s="17" t="n">
+        <f aca="false">E27/E7</f>
+        <v>1.11318795430945</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="E28" s="6" t="n">
-        <v>13817</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>9023</v>
-      </c>
-      <c r="G28" s="6" t="n">
-        <v>0.008448</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="E28" s="8" t="n">
+        <v>19935</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>13409</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>0.013113</v>
+      </c>
+      <c r="H28" s="17" t="n">
+        <f aca="false">G8/G28</f>
+        <v>1.49874170670327</v>
+      </c>
+      <c r="I28" s="17" t="n">
+        <f aca="false">E28/E8</f>
+        <v>1.35806253832005</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="E29" s="6" t="n">
-        <v>24969</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>16830</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0.023863</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="E29" s="8" t="n">
+        <v>15677</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>10360</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>0.00867</v>
+      </c>
+      <c r="H29" s="17" t="n">
+        <f aca="false">G9/G29</f>
+        <v>5.55536332179931</v>
+      </c>
+      <c r="I29" s="17" t="n">
+        <f aca="false">E29/E9</f>
+        <v>0.663239835850573</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="8" t="n">
         <v>181439</v>
       </c>
-      <c r="F30" s="6" t="n">
-        <v>181440</v>
-      </c>
-      <c r="G30" s="6" t="n">
-        <v>3.588861</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="F30" s="8" t="n">
+        <v>186188</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>3.448992</v>
+      </c>
+      <c r="H30" s="17" t="n">
+        <f aca="false">G10/G30</f>
+        <v>3.00290606646812</v>
+      </c>
+      <c r="I30" s="17" t="n">
+        <f aca="false">E30/E10</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="8" t="n">
         <v>181439</v>
       </c>
-      <c r="F31" s="6" t="n">
-        <v>181440</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>3.499128</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="F31" s="8" t="n">
+        <v>187112</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>3.577155</v>
+      </c>
+      <c r="H31" s="17" t="n">
+        <f aca="false">G11/G31</f>
+        <v>2.72490540667094</v>
+      </c>
+      <c r="I31" s="17" t="n">
+        <f aca="false">E31/E11</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="14" t="n">
+      <c r="G32" s="16" t="n">
         <f aca="false">SUM(G25:G31)</f>
-        <v>7.12147</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+        <v>7.049095</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
     </row>
+    <row r="33" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
-        <v>23</v>
+      <c r="A34" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
+      <c r="A35" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A36" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -6219,25 +6461,25 @@
   </sheetPr>
   <dimension ref="A64:A66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>23</v>
+      <c r="A64" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>24</v>
+      <c r="A65" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>25</v>
+      <c r="A66" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6257,671 +6499,784 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:O22"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="18.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.83"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
+    <row r="3" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>1.5E-005</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <f aca="false">VLOOKUP(I5,$A$13:$G$17,7,0)</f>
-        <v>1.5E-005</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <f aca="false">VLOOKUP(I5,$A$5:$G$11,7,0)</f>
-        <v>1.5E-005</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <f aca="false">VLOOKUP(M5,$A$13:$G$17,5,0)</f>
-        <v>36</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <f aca="false">VLOOKUP(M5,$A$5:$G$11,5,0)</f>
+      <c r="G5" s="8" t="n">
+        <v>2.1E-005</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <f aca="false">VLOOKUP(K5,$A$13:$G$17,7,0)</f>
+        <v>0.000282</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <f aca="false">VLOOKUP(K5,$A$5:$G$11,7,0)</f>
+        <v>2.1E-005</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <f aca="false">VLOOKUP(O5,$A$13:$G$17,5,0)</f>
+        <v>33</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <f aca="false">VLOOKUP(O5,$A$5:$G$11,5,0)</f>
         <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="8" t="n">
         <v>158</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="G6" s="6" t="n">
-        <v>0.000106</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <f aca="false">VLOOKUP(I6,$A$13:$G$17,7,0)</f>
-        <v>8.7E-005</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <f aca="false">VLOOKUP(I6,$A$5:$G$11,7,0)</f>
-        <v>0.000106</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <f aca="false">VLOOKUP(M6,$A$13:$G$17,5,0)</f>
-        <v>170</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <f aca="false">VLOOKUP(M6,$A$5:$G$11,5,0)</f>
+      <c r="G6" s="8" t="n">
+        <v>0.000118</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <f aca="false">VLOOKUP(K6,$A$13:$G$17,7,0)</f>
+        <v>0.00037</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <f aca="false">VLOOKUP(K6,$A$5:$G$11,7,0)</f>
+        <v>0.000118</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <f aca="false">VLOOKUP(O6,$A$13:$G$17,5,0)</f>
+        <v>237</v>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <f aca="false">VLOOKUP(O6,$A$5:$G$11,5,0)</f>
         <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="8" t="n">
         <v>1723</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="8" t="n">
         <v>434</v>
       </c>
-      <c r="G7" s="6" t="n">
-        <v>0.001217</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="14" t="n">
-        <f aca="false">SUM(J5:J6)</f>
-        <v>0.000102</v>
-      </c>
-      <c r="K7" s="14" t="n">
-        <f aca="false">SUM(K5:K6)</f>
-        <v>0.000121</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="G7" s="8" t="n">
+        <v>0.001168</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="16" t="n">
+        <f aca="false">SUM(L5:L6)</f>
+        <v>0.000652</v>
+      </c>
+      <c r="M7" s="16" t="n">
+        <f aca="false">SUM(M5:M6)</f>
+        <v>0.000139</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="8" t="n">
         <v>3482</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="8" t="n">
         <v>774</v>
       </c>
-      <c r="G8" s="6" t="n">
-        <v>0.002153</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="G8" s="8" t="n">
+        <v>0.002101</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="8" t="n">
         <v>112890</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="8" t="n">
         <v>41277</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>1.490045</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="G9" s="8" t="n">
+        <v>0.410421</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="16" t="n">
         <f aca="false">SUM(G5:G9)</f>
-        <v>1.493536</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+        <v>0.413829</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="M10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="Q10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <f aca="false">VLOOKUP(I11,$A$13:$G$17,7,0)</f>
-        <v>0.002788</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <f aca="false">VLOOKUP(I11,$A$5:$G$11,7,0)</f>
-        <v>0.001217</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <f aca="false">VLOOKUP(M11,$A$13:$G$17,5,0)</f>
-        <v>5685</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <f aca="false">VLOOKUP(M11,$A$5:$G$11,5,0)</f>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <f aca="false">VLOOKUP(K11,$A$13:$G$17,7,0)</f>
+        <v>0.001392</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <f aca="false">VLOOKUP(K11,$A$5:$G$11,7,0)</f>
+        <v>0.001168</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <f aca="false">VLOOKUP(O11,$A$13:$G$17,5,0)</f>
+        <v>1725</v>
+      </c>
+      <c r="Q11" s="8" t="n">
+        <f aca="false">VLOOKUP(O11,$A$5:$G$11,5,0)</f>
         <v>1723</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <f aca="false">VLOOKUP(I12,$A$13:$G$17,7,0)</f>
-        <v>0.003038</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <f aca="false">VLOOKUP(I12,$A$5:$G$11,7,0)</f>
-        <v>0.002153</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <f aca="false">VLOOKUP(M12,$A$13:$G$17,5,0)</f>
-        <v>8444</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <f aca="false">VLOOKUP(M12,$A$5:$G$11,5,0)</f>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <f aca="false">VLOOKUP(K12,$A$13:$G$17,7,0)</f>
+        <v>0.000641</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <f aca="false">VLOOKUP(K12,$A$5:$G$11,7,0)</f>
+        <v>0.002101</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <f aca="false">VLOOKUP(O12,$A$13:$G$17,5,0)</f>
+        <v>701</v>
+      </c>
+      <c r="Q12" s="8" t="n">
+        <f aca="false">VLOOKUP(O12,$A$5:$G$11,5,0)</f>
         <v>3482</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="E13" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>35</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>1.5E-005</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <f aca="false">SUM(J11:J12)</f>
-        <v>0.005826</v>
-      </c>
-      <c r="K13" s="14" t="n">
-        <f aca="false">SUM(K11:K12)</f>
-        <v>0.00337</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
+      <c r="E13" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0.000282</v>
+      </c>
+      <c r="H13" s="17" t="n">
+        <f aca="false">G5/G13</f>
+        <v>0.074468085106383</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <f aca="false">E13/E5</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="16" t="n">
+        <f aca="false">SUM(L11:L12)</f>
+        <v>0.002033</v>
+      </c>
+      <c r="M13" s="16" t="n">
+        <f aca="false">SUM(M11:M12)</f>
+        <v>0.003269</v>
+      </c>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="n">
-        <v>170</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>76</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>8.7E-005</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="E14" s="8" t="n">
+        <v>237</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>97</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>0.00037</v>
+      </c>
+      <c r="H14" s="17" t="n">
+        <f aca="false">G6/G14</f>
+        <v>0.318918918918919</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <f aca="false">E14/E6</f>
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>5685</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>1311</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>0.002788</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="E15" s="8" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>405</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>0.001392</v>
+      </c>
+      <c r="H15" s="17" t="n">
+        <f aca="false">G7/G15</f>
+        <v>0.839080459770115</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <f aca="false">E15/E7</f>
+        <v>1.00116076610563</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E16" s="6" t="n">
-        <v>8444</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>1713</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.003038</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
+      <c r="E16" s="8" t="n">
+        <v>701</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>137</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>0.000641</v>
+      </c>
+      <c r="H16" s="17" t="n">
+        <f aca="false">G8/G16</f>
+        <v>3.27769110764431</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <f aca="false">E16/E8</f>
+        <v>0.201321079839173</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="M16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="Q16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="E17" s="6" t="n">
-        <v>113473</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>41520</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.36644</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <f aca="false">VLOOKUP(I17,$A$13:$G$17,7,0)</f>
-        <v>0.36644</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <f aca="false">VLOOKUP(I17,$A$5:$G$11,7,0)</f>
-        <v>1.490045</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <f aca="false">VLOOKUP(M17,$A$13:$G$17,5,0)</f>
-        <v>113473</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <f aca="false">VLOOKUP(M17,$A$5:$G$11,5,0)</f>
+      <c r="E17" s="8" t="n">
+        <v>125423</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>46003</v>
+      </c>
+      <c r="G17" s="8" t="n">
+        <v>0.1385</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <f aca="false">G9/G17</f>
+        <v>2.9633285198556</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <f aca="false">E17/E9</f>
+        <v>1.11101957657897</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <f aca="false">VLOOKUP(K17,$A$13:$G$17,7,0)</f>
+        <v>0.1385</v>
+      </c>
+      <c r="M17" s="8" t="n">
+        <f aca="false">VLOOKUP(K17,$A$5:$G$11,7,0)</f>
+        <v>0.410421</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="8" t="n">
+        <f aca="false">VLOOKUP(O17,$A$13:$G$17,5,0)</f>
+        <v>125423</v>
+      </c>
+      <c r="Q17" s="8" t="n">
+        <f aca="false">VLOOKUP(O17,$A$5:$G$11,5,0)</f>
         <v>112890</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="14" t="n">
+      <c r="G18" s="16" t="n">
         <f aca="false">SUM(G13:G17)</f>
-        <v>0.372368</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="14" t="n">
-        <f aca="false">J17</f>
-        <v>0.36644</v>
-      </c>
-      <c r="K18" s="14" t="n">
-        <f aca="false">K17</f>
-        <v>1.490045</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
+        <v>0.141185</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <f aca="false">L17</f>
+        <v>0.1385</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <f aca="false">M17</f>
+        <v>0.410421</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="A20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4" t="s">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="M21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="14" t="n">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="16" t="n">
         <f aca="false">G18</f>
-        <v>0.372368</v>
-      </c>
-      <c r="K22" s="14" t="n">
+        <v>0.141185</v>
+      </c>
+      <c r="M22" s="16" t="n">
         <f aca="false">G10</f>
-        <v>1.493536</v>
-      </c>
+        <v>0.413829</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -6940,20 +7295,20 @@
   </sheetPr>
   <dimension ref="A64:A65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R44" activeCellId="0" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>23</v>
+      <c r="A64" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>25</v>
+      <c r="A65" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
